--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value224.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value224.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.131451116324977</v>
+        <v>1.273694276809692</v>
       </c>
       <c r="B1">
-        <v>1.182063184436322</v>
+        <v>2.257078886032104</v>
       </c>
       <c r="C1">
-        <v>1.130001640731589</v>
+        <v>4.45408821105957</v>
       </c>
       <c r="D1">
-        <v>1.31344543963922</v>
+        <v>2.93709135055542</v>
       </c>
       <c r="E1">
-        <v>1.761540513871465</v>
+        <v>1.012008786201477</v>
       </c>
     </row>
   </sheetData>
